--- a/biology/Mycologie/Vallécule_(mycologie)/Vallécule_(mycologie).xlsx
+++ b/biology/Mycologie/Vallécule_(mycologie)/Vallécule_(mycologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vall%C3%A9cule_(mycologie)</t>
+          <t>Vallécule_(mycologie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La vallécule, en mycologie, est un petit espace circulaire séparant le stipe (pied) de l'hyménophore (les alvéoles) chez les genres Morchella et Mitrophora, chez les ascomycètes. Sorte de gouttière intérieure entre la base du chapeau et le stipe qui s'insère à la base du chapeau, soit directement sans espace, soit en un espace déprimé plus ou moins large et profond en forme de couronne.
 De cette vallécule partent des côtes stériles, c'est-à-dire sans asques.
